--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Autodalist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBBBFA-4639-4057-949D-19164EE1640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15971CD0-3E57-4313-A311-112B163AD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,21 @@
     <sheet name="B" sheetId="4" r:id="rId3"/>
     <sheet name="C" sheetId="6" r:id="rId4"/>
     <sheet name="D" sheetId="5" r:id="rId5"/>
+    <sheet name="E" sheetId="7" r:id="rId6"/>
+    <sheet name="F" sheetId="8" r:id="rId7"/>
+    <sheet name="G" sheetId="9" r:id="rId8"/>
+    <sheet name="H" sheetId="10" r:id="rId9"/>
+    <sheet name="I" sheetId="11" r:id="rId10"/>
+    <sheet name="J" sheetId="12" r:id="rId11"/>
+    <sheet name="K" sheetId="13" r:id="rId12"/>
+    <sheet name="L" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="46">
   <si>
     <t xml:space="preserve"> บันทึกการปฏิบัติงานห้องควบคุมปฏิบัติการประจำวัน</t>
   </si>
@@ -2138,6 +2146,4222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45E8783-6CB1-494B-B13F-465869BA1899}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A0F53-EEA8-4881-8A7D-F8F416C05030}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68A9E97-C1F2-4346-AA49-6653ED0AD6D7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F0E11E-1CCC-4510-AE8B-D3607D365D91}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D636AEE-2E40-4899-B37B-97006D35240B}">
   <sheetPr>
@@ -2145,7 +6369,7 @@
   </sheetPr>
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5307,7 +9531,4223 @@
   </sheetPr>
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C936E2-2F0F-4F5F-8DB5-57D7B83D0200}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45995FC-B4DD-4F5D-B21C-6460B704A69A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C1E843-F563-4597-AE55-3180658709CB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="7.33203125" style="4" customWidth="1"/>
+    <col min="18" max="41" width="9.33203125" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" s="33" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="36"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:L5"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LF-ปกก.-0009 ประกาศใช้ครั้งที่ 1</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F9C292-ABC3-4881-A995-B46512179696}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
